--- a/resultsEST400-499.xlsx
+++ b/resultsEST400-499.xlsx
@@ -6061,10 +6061,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>10960</v>
+        <v>14627</v>
       </c>
       <c r="C402" t="n">
-        <v>15.13451981544495</v>
+        <v>25.14061212539673</v>
       </c>
       <c r="D402" t="n">
         <v>1</v>
@@ -6075,10 +6075,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>4605</v>
+        <v>1233</v>
       </c>
       <c r="C403" t="n">
-        <v>4.942135810852051</v>
+        <v>0.6089184284210205</v>
       </c>
       <c r="D403" t="n">
         <v>1</v>
@@ -6089,10 +6089,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>14017</v>
+        <v>1972</v>
       </c>
       <c r="C404" t="n">
-        <v>25.40066528320312</v>
+        <v>1.199352502822876</v>
       </c>
       <c r="D404" t="n">
         <v>1</v>
@@ -6103,10 +6103,10 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>10376</v>
+        <v>2804</v>
       </c>
       <c r="C405" t="n">
-        <v>13.70335173606873</v>
+        <v>1.376344919204712</v>
       </c>
       <c r="D405" t="n">
         <v>1</v>
@@ -6117,10 +6117,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>10707</v>
+        <v>6613</v>
       </c>
       <c r="C406" t="n">
-        <v>14.94953536987305</v>
+        <v>6.687793731689453</v>
       </c>
       <c r="D406" t="n">
         <v>1</v>
@@ -6131,10 +6131,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>7270</v>
+        <v>6684</v>
       </c>
       <c r="C407" t="n">
-        <v>6.786087989807129</v>
+        <v>4.609642744064331</v>
       </c>
       <c r="D407" t="n">
         <v>1</v>
@@ -6145,10 +6145,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>12473</v>
+        <v>9944</v>
       </c>
       <c r="C408" t="n">
-        <v>16.65907454490662</v>
+        <v>11.15787434577942</v>
       </c>
       <c r="D408" t="n">
         <v>1</v>
@@ -6159,10 +6159,10 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>3155</v>
+        <v>4121</v>
       </c>
       <c r="C409" t="n">
-        <v>2.982177257537842</v>
+        <v>3.051645278930664</v>
       </c>
       <c r="D409" t="n">
         <v>1</v>
@@ -6173,13 +6173,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>16259</v>
+        <v>24470</v>
       </c>
       <c r="C410" t="n">
-        <v>27.72923803329468</v>
+        <v>60.00059390068054</v>
       </c>
       <c r="D410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -6187,10 +6187,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>10088</v>
+        <v>1057</v>
       </c>
       <c r="C411" t="n">
-        <v>14.19968414306641</v>
+        <v>0.4389910697937012</v>
       </c>
       <c r="D411" t="n">
         <v>1</v>
@@ -6201,10 +6201,10 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>17227</v>
+        <v>4366</v>
       </c>
       <c r="C412" t="n">
-        <v>33.99448418617249</v>
+        <v>2.816287040710449</v>
       </c>
       <c r="D412" t="n">
         <v>1</v>
@@ -6215,10 +6215,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>21042</v>
+        <v>2701</v>
       </c>
       <c r="C413" t="n">
-        <v>45.91569042205811</v>
+        <v>1.417914390563965</v>
       </c>
       <c r="D413" t="n">
         <v>1</v>
@@ -6229,10 +6229,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>16272</v>
+        <v>11918</v>
       </c>
       <c r="C414" t="n">
-        <v>30.79918622970581</v>
+        <v>14.80842900276184</v>
       </c>
       <c r="D414" t="n">
         <v>1</v>
@@ -6243,13 +6243,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>24424</v>
+        <v>1961</v>
       </c>
       <c r="C415" t="n">
-        <v>60.00212264060974</v>
+        <v>0.9647173881530762</v>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -6257,10 +6257,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>22320</v>
+        <v>5814</v>
       </c>
       <c r="C416" t="n">
-        <v>55.81243991851807</v>
+        <v>4.525143384933472</v>
       </c>
       <c r="D416" t="n">
         <v>1</v>
@@ -6271,10 +6271,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>2698</v>
+        <v>14488</v>
       </c>
       <c r="C417" t="n">
-        <v>2.45505166053772</v>
+        <v>20.71092939376831</v>
       </c>
       <c r="D417" t="n">
         <v>1</v>
@@ -6285,10 +6285,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>15853</v>
+        <v>2825</v>
       </c>
       <c r="C418" t="n">
-        <v>29.60403275489807</v>
+        <v>1.45424485206604</v>
       </c>
       <c r="D418" t="n">
         <v>1</v>
@@ -6299,10 +6299,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>6097</v>
+        <v>3850</v>
       </c>
       <c r="C419" t="n">
-        <v>6.360944032669067</v>
+        <v>2.292064428329468</v>
       </c>
       <c r="D419" t="n">
         <v>1</v>
@@ -6313,10 +6313,10 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>24318</v>
+        <v>8822</v>
       </c>
       <c r="C420" t="n">
-        <v>58.66212391853333</v>
+        <v>8.336741924285889</v>
       </c>
       <c r="D420" t="n">
         <v>1</v>
@@ -6327,10 +6327,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>3035</v>
+        <v>3526</v>
       </c>
       <c r="C421" t="n">
-        <v>2.302726984024048</v>
+        <v>1.919137239456177</v>
       </c>
       <c r="D421" t="n">
         <v>1</v>
@@ -6341,10 +6341,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>10799</v>
+        <v>2662</v>
       </c>
       <c r="C422" t="n">
-        <v>14.58478927612305</v>
+        <v>1.337094068527222</v>
       </c>
       <c r="D422" t="n">
         <v>1</v>
@@ -6355,10 +6355,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>17306</v>
+        <v>3206</v>
       </c>
       <c r="C423" t="n">
-        <v>33.82298731803894</v>
+        <v>1.678504467010498</v>
       </c>
       <c r="D423" t="n">
         <v>1</v>
@@ -6369,10 +6369,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>16927</v>
+        <v>5380</v>
       </c>
       <c r="C424" t="n">
-        <v>33.35025930404663</v>
+        <v>3.761575222015381</v>
       </c>
       <c r="D424" t="n">
         <v>1</v>
@@ -6383,10 +6383,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>10087</v>
+        <v>2518</v>
       </c>
       <c r="C425" t="n">
-        <v>14.2640392780304</v>
+        <v>1.197699069976807</v>
       </c>
       <c r="D425" t="n">
         <v>1</v>
@@ -6397,10 +6397,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>14520</v>
+        <v>3245</v>
       </c>
       <c r="C426" t="n">
-        <v>19.40227484703064</v>
+        <v>1.545844793319702</v>
       </c>
       <c r="D426" t="n">
         <v>1</v>
@@ -6411,10 +6411,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>12039</v>
+        <v>1802</v>
       </c>
       <c r="C427" t="n">
-        <v>17.37009000778198</v>
+        <v>0.5446517467498779</v>
       </c>
       <c r="D427" t="n">
         <v>1</v>
@@ -6425,10 +6425,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>18061</v>
+        <v>7636</v>
       </c>
       <c r="C428" t="n">
-        <v>37.3781054019928</v>
+        <v>6.609802007675171</v>
       </c>
       <c r="D428" t="n">
         <v>1</v>
@@ -6439,10 +6439,10 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>7733</v>
+        <v>7211</v>
       </c>
       <c r="C429" t="n">
-        <v>10.08711647987366</v>
+        <v>5.916283130645752</v>
       </c>
       <c r="D429" t="n">
         <v>1</v>
@@ -6453,10 +6453,10 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>510</v>
+        <v>1676</v>
       </c>
       <c r="C430" t="n">
-        <v>0.302901029586792</v>
+        <v>0.6909406185150146</v>
       </c>
       <c r="D430" t="n">
         <v>1</v>
@@ -6467,10 +6467,10 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>9813</v>
+        <v>6318</v>
       </c>
       <c r="C431" t="n">
-        <v>13.41809606552124</v>
+        <v>4.753081560134888</v>
       </c>
       <c r="D431" t="n">
         <v>1</v>
@@ -6481,10 +6481,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>23855</v>
+        <v>2829</v>
       </c>
       <c r="C432" t="n">
-        <v>57.13806223869324</v>
+        <v>1.048093795776367</v>
       </c>
       <c r="D432" t="n">
         <v>1</v>
@@ -6495,10 +6495,10 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>4998</v>
+        <v>6529</v>
       </c>
       <c r="C433" t="n">
-        <v>5.231633424758911</v>
+        <v>4.552799224853516</v>
       </c>
       <c r="D433" t="n">
         <v>1</v>
@@ -6509,10 +6509,10 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>12105</v>
+        <v>6207</v>
       </c>
       <c r="C434" t="n">
-        <v>18.50255084037781</v>
+        <v>4.709862947463989</v>
       </c>
       <c r="D434" t="n">
         <v>1</v>
@@ -6523,10 +6523,10 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>2883</v>
+        <v>8991</v>
       </c>
       <c r="C435" t="n">
-        <v>2.608240604400635</v>
+        <v>8.628479242324829</v>
       </c>
       <c r="D435" t="n">
         <v>1</v>
@@ -6537,10 +6537,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>11833</v>
+        <v>981</v>
       </c>
       <c r="C436" t="n">
-        <v>18.24885511398315</v>
+        <v>0.2667269706726074</v>
       </c>
       <c r="D436" t="n">
         <v>1</v>
@@ -6551,10 +6551,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>15401</v>
+        <v>4736</v>
       </c>
       <c r="C437" t="n">
-        <v>28.84243178367615</v>
+        <v>3.122681379318237</v>
       </c>
       <c r="D437" t="n">
         <v>1</v>
@@ -6565,10 +6565,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>7671</v>
+        <v>5044</v>
       </c>
       <c r="C438" t="n">
-        <v>8.36128568649292</v>
+        <v>3.305302858352661</v>
       </c>
       <c r="D438" t="n">
         <v>1</v>
@@ -6579,10 +6579,10 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>4869</v>
+        <v>2514</v>
       </c>
       <c r="C439" t="n">
-        <v>4.640565633773804</v>
+        <v>1.257573366165161</v>
       </c>
       <c r="D439" t="n">
         <v>1</v>
@@ -6593,10 +6593,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>22149</v>
+        <v>2494</v>
       </c>
       <c r="C440" t="n">
-        <v>50.72931981086731</v>
+        <v>1.149695158004761</v>
       </c>
       <c r="D440" t="n">
         <v>1</v>
@@ -6607,13 +6607,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>23577</v>
+        <v>17782</v>
       </c>
       <c r="C441" t="n">
-        <v>60.00177550315857</v>
+        <v>28.37506628036499</v>
       </c>
       <c r="D441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -6621,10 +6621,10 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>10191</v>
+        <v>434</v>
       </c>
       <c r="C442" t="n">
-        <v>14.91535806655884</v>
+        <v>0.143179178237915</v>
       </c>
       <c r="D442" t="n">
         <v>1</v>
@@ -6635,10 +6635,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>3729</v>
+        <v>7247</v>
       </c>
       <c r="C443" t="n">
-        <v>3.634356737136841</v>
+        <v>7.52823805809021</v>
       </c>
       <c r="D443" t="n">
         <v>1</v>
@@ -6649,10 +6649,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>10051</v>
+        <v>1229</v>
       </c>
       <c r="C444" t="n">
-        <v>13.95005059242249</v>
+        <v>0.6102972030639648</v>
       </c>
       <c r="D444" t="n">
         <v>1</v>
@@ -6663,10 +6663,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>18669</v>
+        <v>10791</v>
       </c>
       <c r="C445" t="n">
-        <v>31.01928782463074</v>
+        <v>10.39438796043396</v>
       </c>
       <c r="D445" t="n">
         <v>1</v>
@@ -6677,10 +6677,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>12874</v>
+        <v>5086</v>
       </c>
       <c r="C446" t="n">
-        <v>20.91260480880737</v>
+        <v>3.460047960281372</v>
       </c>
       <c r="D446" t="n">
         <v>1</v>
@@ -6691,10 +6691,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>8861</v>
+        <v>4479</v>
       </c>
       <c r="C447" t="n">
-        <v>11.70658922195435</v>
+        <v>2.756176948547363</v>
       </c>
       <c r="D447" t="n">
         <v>1</v>
@@ -6705,10 +6705,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>20500</v>
+        <v>13583</v>
       </c>
       <c r="C448" t="n">
-        <v>43.77445816993713</v>
+        <v>16.96275520324707</v>
       </c>
       <c r="D448" t="n">
         <v>1</v>
@@ -6719,10 +6719,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>7621</v>
+        <v>12504</v>
       </c>
       <c r="C449" t="n">
-        <v>7.370169639587402</v>
+        <v>15.73604607582092</v>
       </c>
       <c r="D449" t="n">
         <v>1</v>
@@ -6733,10 +6733,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>9092</v>
+        <v>816</v>
       </c>
       <c r="C450" t="n">
-        <v>12.46410369873047</v>
+        <v>0.3293182849884033</v>
       </c>
       <c r="D450" t="n">
         <v>1</v>
@@ -6747,10 +6747,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>6110</v>
+        <v>1668</v>
       </c>
       <c r="C451" t="n">
-        <v>7.00272274017334</v>
+        <v>0.8283329010009766</v>
       </c>
       <c r="D451" t="n">
         <v>1</v>
@@ -6761,13 +6761,13 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>23152</v>
+        <v>2729</v>
       </c>
       <c r="C452" t="n">
-        <v>60.00471496582031</v>
+        <v>1.395344018936157</v>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -6775,10 +6775,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>15213</v>
+        <v>10816</v>
       </c>
       <c r="C453" t="n">
-        <v>27.29522180557251</v>
+        <v>12.46210789680481</v>
       </c>
       <c r="D453" t="n">
         <v>1</v>
@@ -6789,10 +6789,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>5761</v>
+        <v>2049</v>
       </c>
       <c r="C454" t="n">
-        <v>6.679091453552246</v>
+        <v>1.211089134216309</v>
       </c>
       <c r="D454" t="n">
         <v>1</v>
@@ -6803,10 +6803,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>15602</v>
+        <v>6526</v>
       </c>
       <c r="C455" t="n">
-        <v>28.59848666191101</v>
+        <v>5.146907567977905</v>
       </c>
       <c r="D455" t="n">
         <v>1</v>
@@ -6817,10 +6817,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>4509</v>
+        <v>10439</v>
       </c>
       <c r="C456" t="n">
-        <v>4.354908227920532</v>
+        <v>14.74250841140747</v>
       </c>
       <c r="D456" t="n">
         <v>1</v>
@@ -6831,10 +6831,10 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>20372</v>
+        <v>12344</v>
       </c>
       <c r="C457" t="n">
-        <v>42.90129017829895</v>
+        <v>15.48947548866272</v>
       </c>
       <c r="D457" t="n">
         <v>1</v>
@@ -6845,10 +6845,10 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>12765</v>
+        <v>9768</v>
       </c>
       <c r="C458" t="n">
-        <v>20.81566715240479</v>
+        <v>11.96901822090149</v>
       </c>
       <c r="D458" t="n">
         <v>1</v>
@@ -6859,10 +6859,10 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>13425</v>
+        <v>2324</v>
       </c>
       <c r="C459" t="n">
-        <v>23.21480512619019</v>
+        <v>1.431987285614014</v>
       </c>
       <c r="D459" t="n">
         <v>1</v>
@@ -6873,10 +6873,10 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>15980</v>
+        <v>6551</v>
       </c>
       <c r="C460" t="n">
-        <v>28.45717215538025</v>
+        <v>4.847487688064575</v>
       </c>
       <c r="D460" t="n">
         <v>1</v>
@@ -6887,10 +6887,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>8027</v>
+        <v>2811</v>
       </c>
       <c r="C461" t="n">
-        <v>9.53083062171936</v>
+        <v>1.417273998260498</v>
       </c>
       <c r="D461" t="n">
         <v>1</v>
@@ -6901,10 +6901,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>12756</v>
+        <v>5827</v>
       </c>
       <c r="C462" t="n">
-        <v>22.6210732460022</v>
+        <v>4.531213045120239</v>
       </c>
       <c r="D462" t="n">
         <v>1</v>
@@ -6915,10 +6915,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>13908</v>
+        <v>6892</v>
       </c>
       <c r="C463" t="n">
-        <v>23.15091180801392</v>
+        <v>6.076826572418213</v>
       </c>
       <c r="D463" t="n">
         <v>1</v>
@@ -6929,10 +6929,10 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>9525</v>
+        <v>4817</v>
       </c>
       <c r="C464" t="n">
-        <v>13.29108595848083</v>
+        <v>3.51691722869873</v>
       </c>
       <c r="D464" t="n">
         <v>1</v>
@@ -6943,10 +6943,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>14760</v>
+        <v>3302</v>
       </c>
       <c r="C465" t="n">
-        <v>27.07473635673523</v>
+        <v>2.01761531829834</v>
       </c>
       <c r="D465" t="n">
         <v>1</v>
@@ -6957,10 +6957,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>2590</v>
+        <v>7495</v>
       </c>
       <c r="C466" t="n">
-        <v>2.151470184326172</v>
+        <v>5.83779501914978</v>
       </c>
       <c r="D466" t="n">
         <v>1</v>
@@ -6971,10 +6971,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>7345</v>
+        <v>11124</v>
       </c>
       <c r="C467" t="n">
-        <v>9.444990873336792</v>
+        <v>14.93817353248596</v>
       </c>
       <c r="D467" t="n">
         <v>1</v>
@@ -6985,13 +6985,13 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>24856</v>
+        <v>8861</v>
       </c>
       <c r="C468" t="n">
-        <v>60.00321936607361</v>
+        <v>8.138381719589233</v>
       </c>
       <c r="D468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -6999,10 +6999,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>17541</v>
+        <v>5687</v>
       </c>
       <c r="C469" t="n">
-        <v>36.40549826622009</v>
+        <v>3.718128204345703</v>
       </c>
       <c r="D469" t="n">
         <v>1</v>
@@ -7013,10 +7013,10 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>19612</v>
+        <v>7253</v>
       </c>
       <c r="C470" t="n">
-        <v>40.56617021560669</v>
+        <v>6.361289501190186</v>
       </c>
       <c r="D470" t="n">
         <v>1</v>
@@ -7027,10 +7027,10 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>3744</v>
+        <v>10042</v>
       </c>
       <c r="C471" t="n">
-        <v>3.62883472442627</v>
+        <v>10.73122453689575</v>
       </c>
       <c r="D471" t="n">
         <v>1</v>
@@ -7041,10 +7041,10 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>7247</v>
+        <v>969</v>
       </c>
       <c r="C472" t="n">
-        <v>9.355919361114502</v>
+        <v>0.4135811328887939</v>
       </c>
       <c r="D472" t="n">
         <v>1</v>
@@ -7055,10 +7055,10 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>13514</v>
+        <v>1907</v>
       </c>
       <c r="C473" t="n">
-        <v>19.68044471740723</v>
+        <v>0.8192036151885986</v>
       </c>
       <c r="D473" t="n">
         <v>1</v>
@@ -7069,10 +7069,10 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>1100</v>
+        <v>7147</v>
       </c>
       <c r="C474" t="n">
-        <v>0.972325325012207</v>
+        <v>6.35259485244751</v>
       </c>
       <c r="D474" t="n">
         <v>1</v>
@@ -7083,10 +7083,10 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>13318</v>
+        <v>8361</v>
       </c>
       <c r="C475" t="n">
-        <v>23.7816174030304</v>
+        <v>8.280720233917236</v>
       </c>
       <c r="D475" t="n">
         <v>1</v>
@@ -7097,10 +7097,10 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>2875</v>
+        <v>14313</v>
       </c>
       <c r="C476" t="n">
-        <v>1.978222131729126</v>
+        <v>19.11187982559204</v>
       </c>
       <c r="D476" t="n">
         <v>1</v>
@@ -7111,10 +7111,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>7588</v>
+        <v>14415</v>
       </c>
       <c r="C477" t="n">
-        <v>9.517335891723633</v>
+        <v>19.62747120857239</v>
       </c>
       <c r="D477" t="n">
         <v>1</v>
@@ -7125,10 +7125,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>16974</v>
+        <v>17818</v>
       </c>
       <c r="C478" t="n">
-        <v>31.20337200164795</v>
+        <v>33.17127847671509</v>
       </c>
       <c r="D478" t="n">
         <v>1</v>
@@ -7139,10 +7139,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>1487</v>
+        <v>6020</v>
       </c>
       <c r="C479" t="n">
-        <v>0.8410921096801758</v>
+        <v>4.386992216110229</v>
       </c>
       <c r="D479" t="n">
         <v>1</v>
@@ -7153,10 +7153,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>4927</v>
+        <v>4193</v>
       </c>
       <c r="C480" t="n">
-        <v>5.305304288864136</v>
+        <v>2.675059795379639</v>
       </c>
       <c r="D480" t="n">
         <v>1</v>
@@ -7167,10 +7167,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>14170</v>
+        <v>8301</v>
       </c>
       <c r="C481" t="n">
-        <v>25.22183275222778</v>
+        <v>7.533198118209839</v>
       </c>
       <c r="D481" t="n">
         <v>1</v>
@@ -7181,10 +7181,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>10950</v>
+        <v>4576</v>
       </c>
       <c r="C482" t="n">
-        <v>13.29987406730652</v>
+        <v>2.953443288803101</v>
       </c>
       <c r="D482" t="n">
         <v>1</v>
@@ -7195,10 +7195,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>10738</v>
+        <v>996</v>
       </c>
       <c r="C483" t="n">
-        <v>15.75724339485168</v>
+        <v>0.3685545921325684</v>
       </c>
       <c r="D483" t="n">
         <v>1</v>
@@ -7209,13 +7209,13 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>24013</v>
+        <v>11864</v>
       </c>
       <c r="C484" t="n">
-        <v>60.00242161750793</v>
+        <v>14.77514719963074</v>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -7223,10 +7223,10 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>1449</v>
+        <v>5530</v>
       </c>
       <c r="C485" t="n">
-        <v>1.153181076049805</v>
+        <v>4.033508062362671</v>
       </c>
       <c r="D485" t="n">
         <v>1</v>
@@ -7237,10 +7237,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>15158</v>
+        <v>10476</v>
       </c>
       <c r="C486" t="n">
-        <v>29.32555222511292</v>
+        <v>12.53589534759521</v>
       </c>
       <c r="D486" t="n">
         <v>1</v>
@@ -7251,10 +7251,10 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>11936</v>
+        <v>8423</v>
       </c>
       <c r="C487" t="n">
-        <v>17.60274481773376</v>
+        <v>7.074377536773682</v>
       </c>
       <c r="D487" t="n">
         <v>1</v>
@@ -7265,10 +7265,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>9545</v>
+        <v>6243</v>
       </c>
       <c r="C488" t="n">
-        <v>13.52306032180786</v>
+        <v>5.16113018989563</v>
       </c>
       <c r="D488" t="n">
         <v>1</v>
@@ -7279,10 +7279,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>14302</v>
+        <v>4878</v>
       </c>
       <c r="C489" t="n">
-        <v>26.15955233573914</v>
+        <v>3.132783889770508</v>
       </c>
       <c r="D489" t="n">
         <v>1</v>
@@ -7293,10 +7293,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>3149</v>
+        <v>6616</v>
       </c>
       <c r="C490" t="n">
-        <v>2.842598915100098</v>
+        <v>5.567851066589355</v>
       </c>
       <c r="D490" t="n">
         <v>1</v>
@@ -7307,13 +7307,13 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>23451</v>
+        <v>16098</v>
       </c>
       <c r="C491" t="n">
-        <v>60.00165939331055</v>
+        <v>25.46987152099609</v>
       </c>
       <c r="D491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
@@ -7321,10 +7321,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>6713</v>
+        <v>4822</v>
       </c>
       <c r="C492" t="n">
-        <v>7.008973598480225</v>
+        <v>3.019051313400269</v>
       </c>
       <c r="D492" t="n">
         <v>1</v>
@@ -7335,13 +7335,13 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>26439</v>
+        <v>1233</v>
       </c>
       <c r="C493" t="n">
-        <v>60.00089478492737</v>
+        <v>0.5142612457275391</v>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -7349,13 +7349,13 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>25959</v>
+        <v>7739</v>
       </c>
       <c r="C494" t="n">
-        <v>60.00088906288147</v>
+        <v>6.655339241027832</v>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495">
@@ -7363,13 +7363,13 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>26102</v>
+        <v>4743</v>
       </c>
       <c r="C495" t="n">
-        <v>60.00450110435486</v>
+        <v>3.030831098556519</v>
       </c>
       <c r="D495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -7377,13 +7377,13 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>25981</v>
+        <v>19653</v>
       </c>
       <c r="C496" t="n">
-        <v>60.0040066242218</v>
+        <v>37.17036819458008</v>
       </c>
       <c r="D496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
@@ -7391,10 +7391,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>7269</v>
+        <v>16449</v>
       </c>
       <c r="C497" t="n">
-        <v>6.709215879440308</v>
+        <v>24.47938013076782</v>
       </c>
       <c r="D497" t="n">
         <v>1</v>
@@ -7405,10 +7405,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>10343</v>
+        <v>4157</v>
       </c>
       <c r="C498" t="n">
-        <v>12.62770700454712</v>
+        <v>2.33838415145874</v>
       </c>
       <c r="D498" t="n">
         <v>1</v>
@@ -7419,10 +7419,10 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>2637</v>
+        <v>3742</v>
       </c>
       <c r="C499" t="n">
-        <v>2.044607639312744</v>
+        <v>2.350618362426758</v>
       </c>
       <c r="D499" t="n">
         <v>1</v>
@@ -7433,10 +7433,10 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>9577</v>
+        <v>2564</v>
       </c>
       <c r="C500" t="n">
-        <v>12.43796682357788</v>
+        <v>1.209393978118896</v>
       </c>
       <c r="D500" t="n">
         <v>1</v>
@@ -7447,10 +7447,10 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>8824</v>
+        <v>8374</v>
       </c>
       <c r="C501" t="n">
-        <v>10.68094873428345</v>
+        <v>7.737031698226929</v>
       </c>
       <c r="D501" t="n">
         <v>1</v>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18</v>
+        <v>0.198</v>
       </c>
     </row>
   </sheetData>
